--- a/yogiproject/src/main/webapp/sql/database.xlsx
+++ b/yogiproject/src/main/webapp/sql/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_project\yogiproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jsp_workspace\yogipj\yogiproject\src\main\webapp\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EC76C7-14CF-41DF-9045-20B008C817C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E07B70-ED69-43A0-9007-3032E220A400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13215" yWindow="105" windowWidth="15780" windowHeight="15540" xr2:uid="{23825EC0-3ED5-4507-B4FA-0E8233674DB6}"/>
+    <workbookView xWindow="-1215" yWindow="585" windowWidth="17070" windowHeight="11535" xr2:uid="{23825EC0-3ED5-4507-B4FA-0E8233674DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -923,7 +923,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89BAA02-70D8-4673-8090-879B13B6C9CC}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
